--- a/Model data/Model_data_forecast_1996.xlsx
+++ b/Model data/Model_data_forecast_1996.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP82PS\OneDrive - Aalborg Universitet\Skrivebord\PhD Aalborg\SFCIO_INCOME_IN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/lp82ps_id_aau_dk/Documents/Skrivebord/PhD Aalborg/SFCIO_INCOME_IN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D896A6-A843-4FBB-9010-B1BF39860A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8C283468C3574AFC1248489642FCCC271E91D759" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD2E955-D465-4191-9A22-49C9290D40F8}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="360" windowWidth="19260" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
